--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3465.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3465.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.260861513286846</v>
+        <v>1.043451070785522</v>
       </c>
       <c r="B1">
-        <v>1.398560872277374</v>
+        <v>1.724144220352173</v>
       </c>
       <c r="C1">
-        <v>1.676688546764096</v>
+        <v>5.151397705078125</v>
       </c>
       <c r="D1">
-        <v>2.968012260786975</v>
+        <v>1.249244928359985</v>
       </c>
       <c r="E1">
-        <v>8.025388402367946</v>
+        <v>0.3392289876937866</v>
       </c>
     </row>
   </sheetData>
